--- a/Base/Teams/Cardinals/2021 Team Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Team Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Cardinals/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_ABDE5B1081D87F775894FAA04AB256C0E4273B62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C3D970C-1A09-4BD6-BA1F-5220B12FC1A3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,16 +41,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20</t>
-  </si>
-  <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3</t>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 10 12 23 8 7 12 13 0 4 14</t>
+  </si>
+  <si>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +167,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 69 62 68 64 55 73 69 61 64 68 62</t>
-  </si>
-  <si>
-    <t>14 22 18 19 35 15 27 13 22 23 26 20</t>
-  </si>
-  <si>
-    <t>25 14 21 9 23 22 20 32 12 21 29 24 22 28 27 26 0 27</t>
-  </si>
-  <si>
-    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33</t>
-  </si>
-  <si>
-    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0</t>
-  </si>
-  <si>
-    <t>11 13 0 6 0 8 5 0 27 0 0 0 0 0 12 0 4 4 13 0 0 21 0 0 0 0 14 0 0 2 0 1 17 7 8 0 0 12 0</t>
+    <t>59 69 62 68 64 55 73 69 61 64 68 62 64 65</t>
+  </si>
+  <si>
+    <t>14 22 18 19 35 15 27 13 22 23 26 20 22 27</t>
+  </si>
+  <si>
+    <t>25 14 21 9 23 22 20 32 12 21 29 24 22 28 27 26 0 27 21 32 18</t>
+  </si>
+  <si>
+    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33 41 58</t>
+  </si>
+  <si>
+    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0 8 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -204,13 +207,16 @@
   </si>
   <si>
     <t>Offside</t>
+  </si>
+  <si>
+    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +365,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +417,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,7 +710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -668,28 +718,28 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,19 +751,19 @@
         <v>108</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q2">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -721,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -730,28 +780,28 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M3">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -763,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>414</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -772,14 +822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -840,7 +890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -943,19 +993,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -964,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,57 +1026,57 @@
         <v>107</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q2">
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
         <v>23</v>
       </c>
-      <c r="H3">
-        <v>21</v>
-      </c>
       <c r="I3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="M3">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="N3">
         <v>6</v>
@@ -1038,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>352</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -1047,14 +1097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1153,14 +1203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,39 +1262,39 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L2">
         <v>114</v>
@@ -1263,12 +1315,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1277,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1302,10 +1354,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1319,28 +1371,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1365,13 +1417,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1380,14 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,51 +1450,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/Base/Teams/Cardinals/2021 Team Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Team Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Cardinals/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_ABDE5B1081D87F775894FAA04AB256C0E4273B62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C3D970C-1A09-4BD6-BA1F-5220B12FC1A3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 10 12 23 8 7 12 13 0 4 14</t>
-  </si>
-  <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11</t>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 10 12 23 8 7 12 13 0 4 14 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9</t>
+  </si>
+  <si>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,19 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 69 62 68 64 55 73 69 61 64 68 62 64 65</t>
-  </si>
-  <si>
-    <t>14 22 18 19 35 15 27 13 22 23 26 20 22 27</t>
+    <t>59 69 62 68 64 55 73 69 61 64 68 62 64 65 62</t>
+  </si>
+  <si>
+    <t>14 22 18 19 35 15 27 13 22 23 26 20 22 27 27</t>
   </si>
   <si>
     <t>25 14 21 9 23 22 20 32 12 21 29 24 22 28 27 26 0 27 21 32 18</t>
   </si>
   <si>
-    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33 41 58</t>
-  </si>
-  <si>
-    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0 8 0</t>
+    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33 41 58 52</t>
+  </si>
+  <si>
+    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0 8 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -207,16 +204,13 @@
   </si>
   <si>
     <t>Offside</t>
-  </si>
-  <si>
-    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,14 +273,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,89 +660,89 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>37</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="M2">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="N2">
         <v>12</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>98</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="F3">
-        <v>85</v>
-      </c>
-      <c r="G3">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
       <c r="I3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -804,7 +754,7 @@
         <v>162</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -822,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -928,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,27 +935,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1014,16 +964,16 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="M2">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="N2">
         <v>26</v>
@@ -1035,39 +985,39 @@
         <v>10</v>
       </c>
       <c r="Q2">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>23</v>
       </c>
       <c r="I3">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1079,7 +1029,7 @@
         <v>158</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1097,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,16 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1262,27 +1210,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1297,16 +1245,16 @@
         <v>196</v>
       </c>
       <c r="L2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -1315,12 +1263,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1329,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1354,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1371,45 +1319,45 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1420,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1432,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,51 +1398,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/Base/Teams/Cardinals/2021 Team Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 10 12 23 8 7 12 13 0 4 14 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9</t>
-  </si>
-  <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4</t>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 10 12 23 8 7 12 13 0 4 14 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26</t>
+  </si>
+  <si>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 69 62 68 64 55 73 69 61 64 68 62 64 65 62</t>
-  </si>
-  <si>
-    <t>14 22 18 19 35 15 27 13 22 23 26 20 22 27 27</t>
-  </si>
-  <si>
-    <t>25 14 21 9 23 22 20 32 12 21 29 24 22 28 27 26 0 27 21 32 18</t>
-  </si>
-  <si>
-    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33 41 58 52</t>
-  </si>
-  <si>
-    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0 8 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0</t>
+    <t>59 69 62 68 64 55 73 69 61 64 68 62 64 65 62 64</t>
+  </si>
+  <si>
+    <t>14 22 18 19 35 15 27 13 22 23 26 20 22 27 27 17</t>
+  </si>
+  <si>
+    <t>25 14 21 9 23 22 20 32 12 21 29 24 22 28 27 26 0 27 21 32 18 17 31</t>
+  </si>
+  <si>
+    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33 41 58 52 34 49 49</t>
+  </si>
+  <si>
+    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0 8 0 0 0 10 14</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 6 12 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -677,10 +677,10 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -689,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>141</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P2">
         <v>12</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>26</v>
+      </c>
+      <c r="I3">
         <v>38</v>
       </c>
-      <c r="H3">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>34</v>
-      </c>
       <c r="J3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="M3">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="N3">
         <v>19</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>469</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -940,31 +940,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>130</v>
       </c>
       <c r="N2">
+        <v>28</v>
+      </c>
+      <c r="O2">
         <v>26</v>
       </c>
-      <c r="O2">
-        <v>25</v>
-      </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
         <v>366</v>
@@ -996,37 +996,37 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M3">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="N3">
         <v>9</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>428</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,16 +1233,16 @@
         <v>533</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L2">
         <v>115</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
         <v>7</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Cardinals/2021 Team Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 10 12 23 8 7 12 13 0 4 14 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26</t>
-  </si>
-  <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2</t>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12 6 5 4 2 2 10 57 0 2 1 4 1 0 5 1 7 0 11 10 2</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 10 12 23 8 7 12 13 0 4 14 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26 3 10 5 10 5 8 13 7 11 4 3 11 10 24 3 33 4 5 7 16 7 4 7 14 2 14 8</t>
+  </si>
+  <si>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3 43 3 -1 4 1 -2 2 2 4 -2 7 -2 5 5 11 -1 2 8 18 4 3 -1 1 3 3 -1 3 2 2 1 -3 3</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2 9 1 6 23 10 7 3 12 14 7 5 7 7 5 5 37 8 20 39 14</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 69 62 68 64 55 73 69 61 64 68 62 64 65 62 64</t>
-  </si>
-  <si>
-    <t>14 22 18 19 35 15 27 13 22 23 26 20 22 27 27 17</t>
-  </si>
-  <si>
-    <t>25 14 21 9 23 22 20 32 12 21 29 24 22 28 27 26 0 27 21 32 18 17 31</t>
-  </si>
-  <si>
-    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33 41 58 52 34 49 49</t>
-  </si>
-  <si>
-    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0 8 0 0 0 10 14</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 6 12 0</t>
+    <t>59 69 62 68 64 55 73 69 61 64 68 62 64 65 62 64 64</t>
+  </si>
+  <si>
+    <t>14 22 18 19 35 15 27 13 22 23 26 20 22 27 27 17 16</t>
+  </si>
+  <si>
+    <t>25 14 21 9 23 22 20 32 12 21 29 24 22 28 27 26 0 27 21 32 18 17 31 21 13 16 31</t>
+  </si>
+  <si>
+    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33 41 58 52 34 49 49 39</t>
+  </si>
+  <si>
+    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0 8 0 0 0 10 14 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 6 12 0 0 48 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -689,28 +689,28 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="M2">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2">
-        <v>371</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>26</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -943,49 +943,49 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
       <c r="F2">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="M2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N2">
         <v>28</v>
       </c>
       <c r="O2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2">
         <v>11</v>
       </c>
       <c r="Q2">
-        <v>366</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G3">
         <v>32</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>179</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1239,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M2">
         <v>80</v>
       </c>
       <c r="N2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2">
         <v>64</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1445,7 +1445,7 @@
         <v>59</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Cardinals/2021 Team Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12 6 5 4 2 2 10 57 0 2 1 4 1 0 5 1 7 0 11 10 2</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 10 12 23 8 7 12 13 0 4 14 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26 3 10 5 10 5 8 13 7 11 4 3 11 10 24 3 33 4 5 7 16 7 4 7 14 2 14 8</t>
-  </si>
-  <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3 43 3 -1 4 1 -2 2 2 4 -2 7 -2 5 5 11 -1 2 8 18 4 3 -1 1 3 3 -1 3 2 2 1 -3 3</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2 9 1 6 23 10 7 3 12 14 7 5 7 7 5 5 37 8 20 39 14</t>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12 6 5 4 2 2 10 57 0 2 1 4 1 0 5 1 7 0 11 10 2 24 14 1 2 1 2 2 1 -5 2 7 4 1 -3 2 7 12 5 0 1 2 2 1 1 15 3 11 6 9</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 10 12 23 8 7 12 13 0 4 14 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26 3 10 5 10 5 8 13 7 11 4 3 11 10 24 3 33 4 5 7 16 7 4 7 14 2 14 8 42 4 17 3 3 3 20 10 5 3 4 9 4 5 5 11 43 -7 6 19 16 7 12 7 11</t>
+  </si>
+  <si>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3 43 3 -1 4 1 -2 2 2 4 -2 7 -2 5 5 11 -1 2 8 18 4 3 -1 1 3 3 -1 3 2 2 1 -3 3 4 -1 2 0 -1 5 4 6 3 3 1 0 12 -1 4 1</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2 9 1 6 23 10 7 3 12 14 7 5 7 7 5 5 37 8 20 39 14 9 6 7 7 14 11 9 6 9 7 7 11 21 12 5 26 0 8 31 16 8 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 69 62 68 64 55 73 69 61 64 68 62 64 65 62 64 64</t>
-  </si>
-  <si>
-    <t>14 22 18 19 35 15 27 13 22 23 26 20 22 27 27 17 16</t>
+    <t>59 69 62 68 64 55 73 69 61 64 68 62 64 65 62 64 64 65 60 63</t>
+  </si>
+  <si>
+    <t>14 22 18 19 35 15 27 13 22 23 26 20 22 27 27 17 16 20 18 20</t>
   </si>
   <si>
     <t>25 14 21 9 23 22 20 32 12 21 29 24 22 28 27 26 0 27 21 32 18 17 31 21 13 16 31</t>
   </si>
   <si>
-    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33 41 58 52 34 49 49 39</t>
-  </si>
-  <si>
-    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0 8 0 0 0 10 14 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 6 12 0 0 48 0</t>
+    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33 41 58 52 34 49 49 39 31 43 47</t>
+  </si>
+  <si>
+    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0 8 0 0 0 10 14 0 0 17 -2</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 6 12 0 0 48 0 0 -5 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>9</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>168</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q2">
         <v>440</v>
@@ -721,37 +721,37 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>26</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="M3">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="N3">
         <v>19</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>533</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>150</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q2">
         <v>438</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="M3">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="N3">
         <v>12</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>494</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L2">
         <v>116</v>
@@ -1251,10 +1251,10 @@
         <v>80</v>
       </c>
       <c r="N2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,13 +1365,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Cardinals/2021 Team Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12 6 5 4 2 2 10 57 0 2 1 4 1 0 5 1 7 0 11 10 2 24 14 1 2 1 2 2 1 -5 2 7 4 1 -3 2 7 12 5 0 1 2 2 1 1 15 3 11 6 9</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 10 12 23 8 7 12 13 0 4 14 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26 3 10 5 10 5 8 13 7 11 4 3 11 10 24 3 33 4 5 7 16 7 4 7 14 2 14 8 42 4 17 3 3 3 20 10 5 3 4 9 4 5 5 11 43 -7 6 19 16 7 12 7 11</t>
-  </si>
-  <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3 43 3 -1 4 1 -2 2 2 4 -2 7 -2 5 5 11 -1 2 8 18 4 3 -1 1 3 3 -1 3 2 2 1 -3 3 4 -1 2 0 -1 5 4 6 3 3 1 0 12 -1 4 1</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2 9 1 6 23 10 7 3 12 14 7 5 7 7 5 5 37 8 20 39 14 9 6 7 7 14 11 9 6 9 7 7 11 21 12 5 26 0 8 31 16 8 4</t>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 0 14 0 9 6 -1 6 2 8 12 8 9 3 4 6 3 1 6 6 -3 4 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 4 2 3 1 11 -1 4 5 4 2 2 2 7 6 9 0 0 9 1 3 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 0 6 2 5 1 22 0 3 23 6 1 2 1 6 3 0 4 12 6 5 4 2 2 10 57 0 2 1 4 1 0 5 1 7 0 11 10 2 24 14 1 2 1 2 2 1 -5 2 7 4 1 -3 2 7 12 5 0 1 2 2 1 1 15 3 11 6 9 3 2 6 2 6 5 4 2 -2 6 2 1 0 1 9 0 8 2 19 1 8 11 5 -4 9 10 2 -1 2 3 11 10 0 2 2 4 3 2 2 4 0 3 5</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 4 8 15 16 4 0 15 3 34 9 19 77 4 18 6 13 25 9 11 29 6 2 6 17 2 3 7 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 4 8 58 6 9 8 3 6 8 11 20 9 9 4 9 23 29 9 6 22 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 10 12 23 8 7 12 13 0 4 14 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 -1 14 13 2 5 24 10 15 0 3 9 20 19 27 16 5 7 6 7 13 11 26 3 10 5 10 5 8 13 7 11 4 3 11 10 24 3 33 4 5 7 16 7 4 7 14 2 14 8 42 4 17 3 3 3 20 10 5 3 4 9 4 5 5 11 43 -7 6 19 16 7 12 7 11 1 0 13 5 7 4 2 4 5 8 1 8 13 9 8 35 14 20 19 10 6 9 9 15 -4 9 10 0 2 -4 6 5 11 -2 6 11 0 7 23 5 7 4 8 13 12 13 6</t>
+  </si>
+  <si>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 11 2 16 14 6 7 3 0 15 2 0 29 9 6 12 0 10 0 13 2 3 0 -2 8 1 1 9 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 2 3 7 4 12 6 5 8 2 1 11 4 1 3 8 6 0 10 -2 7 0 9 4 1 4 2 4 8 16 0 0 4 9 -5 -2 11 14 5 2 -1 2 3 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 10 0 7 6 -3 5 5 0 27 6 8 0 0 -3 1 0 1 4 5 3 0 6 0 2 8 1 16 5 0 2 1 2 -2 3 43 3 -1 4 1 -2 2 2 4 -2 7 -2 5 5 11 -1 2 8 18 4 3 -1 1 3 3 -1 3 2 2 1 -3 3 4 -1 2 0 -1 5 4 6 3 3 1 0 12 -1 4 1 4 20 6 10 0 2 -2 2 2 0 0 7 8 4 4 3 3 2 1 0 7 29 5 1 4 2 62 9 8 35 0 7 2 1 17 6 1 1 -2 15 5 3 1 0 1 4 2 -2 8 8 -3 3 4 4 8 11 10 -4 1 7 2 3 -2 6 3 3 -3</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 64 6 14 5 3 7 9 14 -3 4 15 6 6 12 13 7 13 3 17 12 9 8 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 16 14 26 6 1 18 6 12 4 26 5 13 26 13 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 9 7 7 12 4 1 4 15 -2 7 2 19 33 8 5 6 9 12 10 4 7 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 6 9 25 14 36 4 12 16 6 16 48 2 10 3 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 4 5 15 5 13 5 13 5 37 5 15 14 8 22 16 6 5 8 11 -2 9 1 6 23 10 7 3 12 14 7 5 7 7 5 5 37 8 20 39 14 9 6 7 7 14 11 9 6 9 7 7 11 21 12 5 26 0 8 31 16 8 4 2 43 9 7 23 31 12 5 22 17 20 9 2 25 11 5 17 22 4 14 31 10 2 40 4 7 41 29 16</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 69 62 68 64 55 73 69 61 64 68 62 64 65 62 64 64 65 60 63</t>
-  </si>
-  <si>
-    <t>14 22 18 19 35 15 27 13 22 23 26 20 22 27 27 17 16 20 18 20</t>
-  </si>
-  <si>
-    <t>25 14 21 9 23 22 20 32 12 21 29 24 22 28 27 26 0 27 21 32 18 17 31 21 13 16 31</t>
-  </si>
-  <si>
-    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33 41 58 52 34 49 49 39 31 43 47</t>
-  </si>
-  <si>
-    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0 8 0 0 0 10 14 0 0 17 -2</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 6 12 0 0 48 0 0 -5 0 0</t>
+    <t>59 69 62 68 64 55 73 69 61 64 68 62 64 65 62 64 64 65 60 63 70 61</t>
+  </si>
+  <si>
+    <t>14 22 18 19 35 15 27 13 22 23 26 20 22 27 27 17 16 20 18 20 21 7</t>
+  </si>
+  <si>
+    <t>25 14 21 9 23 22 20 32 12 21 29 24 22 28 27 26 0 27 21 32 18 17 31 21 13 16 31 6 14 15</t>
+  </si>
+  <si>
+    <t>58 50 36 58 51 60 52 59 45 47 43 59 47 41 13 47 52 50 44 57 55 52 43 49 49 62 55 52 53 51 51 46 51 47 50 41 43 48 33 41 58 52 34 49 49 39 31 43 47 57 49 48 51 52 54 37 47</t>
+  </si>
+  <si>
+    <t>0 0 0 18 0 -4 15 0 0 0 10 0 0 4 56 1 5 0 8 21 14 20 17 0 8 17 0 9 -2 27 0 0 10 0 16 0 6 3 0 8 0 0 0 10 14 0 0 17 -2 13 0 7 0 8 0 11 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 6 12 0 0 48 0 0 -5 0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,52 +665,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="M2">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q2">
-        <v>440</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,43 +718,43 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3">
+        <v>145</v>
+      </c>
+      <c r="G3">
+        <v>52</v>
+      </c>
+      <c r="H3">
         <v>36</v>
       </c>
-      <c r="F3">
-        <v>126</v>
-      </c>
-      <c r="G3">
-        <v>49</v>
-      </c>
-      <c r="H3">
-        <v>26</v>
-      </c>
       <c r="I3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J3">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="M3">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="N3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>608</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -940,43 +940,43 @@
         <v>24</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>221</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <v>57</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>190</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>61</v>
-      </c>
-      <c r="G2">
-        <v>46</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
       <c r="J2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="M2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2">
         <v>30</v>
@@ -985,7 +985,7 @@
         <v>14</v>
       </c>
       <c r="Q2">
-        <v>438</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,40 +996,40 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J3">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="M3">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>559</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -1215,46 +1215,46 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1371,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1431,7 +1431,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
